--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ntn1-Dcc.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ntn1-Dcc.xlsx
@@ -528,22 +528,22 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9305633333333333</v>
+        <v>1.644726333333334</v>
       </c>
       <c r="H2">
-        <v>2.79169</v>
+        <v>4.934179</v>
       </c>
       <c r="I2">
-        <v>0.01768777137856805</v>
+        <v>0.03084360558270512</v>
       </c>
       <c r="J2">
-        <v>0.01768777137856806</v>
+        <v>0.03084360558270512</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,7 +552,7 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.09290399999999999</v>
+        <v>0.092904</v>
       </c>
       <c r="N2">
         <v>0.278712</v>
@@ -564,16 +564,16 @@
         <v>0.9572435868814848</v>
       </c>
       <c r="Q2">
-        <v>0.08645305591999998</v>
+        <v>0.152801655272</v>
       </c>
       <c r="R2">
-        <v>0.7780775032799999</v>
+        <v>1.375214897448</v>
       </c>
       <c r="S2">
-        <v>0.01693150571836015</v>
+        <v>0.02952484364034644</v>
       </c>
       <c r="T2">
-        <v>0.01693150571836015</v>
+        <v>0.02952484364034644</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9305633333333333</v>
+        <v>1.644726333333334</v>
       </c>
       <c r="H3">
-        <v>2.79169</v>
+        <v>4.934179</v>
       </c>
       <c r="I3">
-        <v>0.01768777137856805</v>
+        <v>0.03084360558270512</v>
       </c>
       <c r="J3">
-        <v>0.01768777137856806</v>
+        <v>0.03084360558270512</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.012449</v>
       </c>
       <c r="O3">
-        <v>0.0427564131185152</v>
+        <v>0.04275641311851519</v>
       </c>
       <c r="P3">
-        <v>0.04275641311851519</v>
+        <v>0.04275641311851518</v>
       </c>
       <c r="Q3">
-        <v>0.003861527645555556</v>
+        <v>0.006825066041222224</v>
       </c>
       <c r="R3">
-        <v>0.03475374881</v>
+        <v>0.061425594371</v>
       </c>
       <c r="S3">
-        <v>0.0007562656602079047</v>
+        <v>0.001318761942358682</v>
       </c>
       <c r="T3">
-        <v>0.0007562656602079048</v>
+        <v>0.001318761942358681</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>132.462531</v>
       </c>
       <c r="I4">
-        <v>0.8392647337471152</v>
+        <v>0.828024694817689</v>
       </c>
       <c r="J4">
-        <v>0.8392647337471153</v>
+        <v>0.828024694817689</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,7 +676,7 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.09290399999999999</v>
+        <v>0.092904</v>
       </c>
       <c r="N4">
         <v>0.278712</v>
@@ -694,10 +694,10 @@
         <v>36.918896940072</v>
       </c>
       <c r="S4">
-        <v>0.8033807840752228</v>
+        <v>0.7926213288937315</v>
       </c>
       <c r="T4">
-        <v>0.803380784075223</v>
+        <v>0.7926213288937315</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>132.462531</v>
       </c>
       <c r="I5">
-        <v>0.8392647337471152</v>
+        <v>0.828024694817689</v>
       </c>
       <c r="J5">
-        <v>0.8392647337471153</v>
+        <v>0.828024694817689</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,10 +744,10 @@
         <v>0.012449</v>
       </c>
       <c r="O5">
-        <v>0.0427564131185152</v>
+        <v>0.04275641311851519</v>
       </c>
       <c r="P5">
-        <v>0.04275641311851519</v>
+        <v>0.04275641311851518</v>
       </c>
       <c r="Q5">
         <v>0.183225116491</v>
@@ -756,10 +756,10 @@
         <v>1.649026048419</v>
       </c>
       <c r="S5">
-        <v>0.03588394967189232</v>
+        <v>0.03540336592395758</v>
       </c>
       <c r="T5">
-        <v>0.03588394967189232</v>
+        <v>0.03540336592395757</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>22.577421</v>
       </c>
       <c r="I6">
-        <v>0.1430474948743168</v>
+        <v>0.1411316995996059</v>
       </c>
       <c r="J6">
-        <v>0.1430474948743168</v>
+        <v>0.1411316995996059</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,7 +800,7 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.09290399999999999</v>
+        <v>0.092904</v>
       </c>
       <c r="N6">
         <v>0.278712</v>
@@ -812,16 +812,16 @@
         <v>0.9572435868814848</v>
       </c>
       <c r="Q6">
-        <v>0.6991775735279999</v>
+        <v>0.699177573528</v>
       </c>
       <c r="R6">
-        <v>6.292598161751999</v>
+        <v>6.292598161752001</v>
       </c>
       <c r="S6">
-        <v>0.1369312970879018</v>
+        <v>0.135097414347407</v>
       </c>
       <c r="T6">
-        <v>0.1369312970879018</v>
+        <v>0.135097414347407</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>22.577421</v>
       </c>
       <c r="I7">
-        <v>0.1430474948743168</v>
+        <v>0.1411316995996059</v>
       </c>
       <c r="J7">
-        <v>0.1430474948743168</v>
+        <v>0.1411316995996059</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,10 +868,10 @@
         <v>0.012449</v>
       </c>
       <c r="O7">
-        <v>0.0427564131185152</v>
+        <v>0.04275641311851519</v>
       </c>
       <c r="P7">
-        <v>0.04275641311851519</v>
+        <v>0.04275641311851518</v>
       </c>
       <c r="Q7">
         <v>0.03122959044766667</v>
@@ -880,10 +880,10 @@
         <v>0.281066314029</v>
       </c>
       <c r="S7">
-        <v>0.006116197786414973</v>
+        <v>0.006034285252198935</v>
       </c>
       <c r="T7">
-        <v>0.006116197786414973</v>
+        <v>0.006034285252198933</v>
       </c>
     </row>
   </sheetData>
